--- a/file/Template_สินค้า.xlsx
+++ b/file/Template_สินค้า.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,15 +410,24 @@
         <v>product_name</v>
       </c>
       <c r="C1" t="str">
+        <v>seller_name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>product_name_cn</v>
+      </c>
+      <c r="E1" t="str">
+        <v>order_point</v>
+      </c>
+      <c r="F1" t="str">
         <v>product_category</v>
       </c>
-      <c r="D1" t="str">
+      <c r="G1" t="str">
         <v>product_type</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>rubber_code</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>storage_location</v>
       </c>
     </row>
@@ -430,21 +439,30 @@
         <v>สินค้าตัวอย่าง</v>
       </c>
       <c r="C2" t="str">
+        <v>ผู้ขายA</v>
+      </c>
+      <c r="D2" t="str">
+        <v>样品</v>
+      </c>
+      <c r="E2" t="str">
+        <v>จุดA</v>
+      </c>
+      <c r="F2" t="str">
         <v>หมวดA</v>
       </c>
-      <c r="D2" t="str">
+      <c r="G2" t="str">
         <v>ประเภท1</v>
       </c>
-      <c r="E2" t="str">
+      <c r="H2" t="str">
         <v>R001</v>
       </c>
-      <c r="F2" t="str">
+      <c r="I2" t="str">
         <v>A-1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>